--- a/output_pore.xlsx
+++ b/output_pore.xlsx
@@ -457,7 +457,7 @@
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="31" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="22" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="14" max="14"/>
     <col width="19" customWidth="1" min="15" max="15"/>
     <col width="19" customWidth="1" min="16" max="16"/>
     <col width="24" customWidth="1" min="17" max="17"/>
@@ -519,7 +519,7 @@
       </c>
       <c r="N1" s="3" t="inlineStr">
         <is>
-          <t>Average Pore Size (px)</t>
+          <t>Avg. Pore Size (px)</t>
         </is>
       </c>
       <c r="O1" s="3" t="inlineStr">
